--- a/pq13/custom.xlsx
+++ b/pq13/custom.xlsx
@@ -271,10 +271,10 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -465,17 +465,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>